--- a/movie_project/WebContent/WEB-INF/etc/프로그램목록_임의순.xlsx
+++ b/movie_project/WebContent/WEB-INF/etc/프로그램목록_임의순.xlsx
@@ -343,17 +343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -361,7 +352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -661,7 +661,7 @@
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -676,28 +676,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -735,7 +735,7 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -759,7 +759,7 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -783,7 +783,7 @@
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -807,7 +807,7 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -831,7 +831,7 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -855,7 +855,7 @@
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -899,13 +899,13 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -925,11 +925,11 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -949,11 +949,11 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -973,11 +973,11 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -997,11 +997,11 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1021,11 +1021,11 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1045,11 +1045,11 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1069,11 +1069,11 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1093,11 +1093,11 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1117,11 +1117,11 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
